--- a/Phase3_Hospitals_Hip_Knee_Reports/Worse_Report_PSI_7_1_2013_to_6_30_2015.xlsx
+++ b/Phase3_Hospitals_Hip_Knee_Reports/Worse_Report_PSI_7_1_2013_to_6_30_2015.xlsx
@@ -22271,6 +22271,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:F139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -24604,6 +24607,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:F186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -32276,6 +32282,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33924,9 +33933,12 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -34140,6 +34152,9 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:G192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -42119,6 +42134,9 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -53657,6 +53675,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -55622,6 +55643,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -57071,6 +57095,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -59646,6 +59673,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
